--- a/src/demos/zdemo_excel3.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel3.w3mi.data.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Data Validation" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Airlines">'Data Validation'!$A$2:$A$19</definedName>
+    <definedName name="Airlines">'Data Validation'!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="109">
   <si>
     <t>0017</t>
   </si>
@@ -47,15 +47,6 @@
     <t>AA</t>
   </si>
   <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
     <t>AZ</t>
   </si>
   <si>
@@ -71,12 +62,6 @@
     <t>Airlines</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>DL</t>
   </si>
   <si>
@@ -86,18 +71,9 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>FJ</t>
-  </si>
-  <si>
     <t>Flight Number</t>
   </si>
   <si>
-    <t>JL</t>
-  </si>
-  <si>
-    <t>LH</t>
-  </si>
-  <si>
     <t>Max. capacity 1st</t>
   </si>
   <si>
@@ -107,12 +83,6 @@
     <t>Max. capacity econ.</t>
   </si>
   <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>NW</t>
-  </si>
-  <si>
     <t>Occupied 1st</t>
   </si>
   <si>
@@ -125,22 +95,7 @@
     <t>Plane Type</t>
   </si>
   <si>
-    <t>QF</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>SQ</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>UA</t>
   </si>
   <si>
     <t>USD</t>
@@ -506,43 +461,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -559,7 +514,7 @@
         <v>422.00000000000000</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -600,7 +555,7 @@
         <v>422.00000000000000</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -641,7 +596,7 @@
         <v>422.00000000000000</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -682,7 +637,7 @@
         <v>422.00000000000000</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -723,7 +678,7 @@
         <v>422.00000000000000</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -764,7 +719,7 @@
         <v>422.00000000000000</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
@@ -793,7 +748,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -805,7 +760,7 @@
         <v>185.00000000000000</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
@@ -834,7 +789,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -846,7 +801,7 @@
         <v>185.00000000000000</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
@@ -875,7 +830,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -887,7 +842,7 @@
         <v>185.00000000000000</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -916,7 +871,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -928,7 +883,7 @@
         <v>185.00000000000000</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
@@ -957,7 +912,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -969,7 +924,7 @@
         <v>185.00000000000000</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
@@ -998,7 +953,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1010,7 +965,7 @@
         <v>185.00000000000000</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
@@ -1039,7 +994,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1051,7 +1006,7 @@
         <v>1030.0000000000000</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -1080,7 +1035,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1092,7 +1047,7 @@
         <v>1030.0000000000000</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -1121,7 +1076,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1133,7 +1088,7 @@
         <v>1030.0000000000000</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -1162,7 +1117,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1174,7 +1129,7 @@
         <v>1030.0000000000000</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -1203,7 +1158,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1215,7 +1170,7 @@
         <v>1030.0000000000000</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
@@ -1244,7 +1199,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1256,7 +1211,7 @@
         <v>1030.0000000000000</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -1285,7 +1240,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -1297,7 +1252,7 @@
         <v>611.00000000000000</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -1326,7 +1281,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1338,7 +1293,7 @@
         <v>611.00000000000000</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -1367,7 +1322,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1379,7 +1334,7 @@
         <v>611.00000000000000</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -1408,7 +1363,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1420,7 +1375,7 @@
         <v>611.00000000000000</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -1449,7 +1404,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -1461,7 +1416,7 @@
         <v>611.00000000000000</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -1490,7 +1445,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -1502,7 +1457,7 @@
         <v>611.00000000000000</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -1551,7 +1506,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1564,7 +1519,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1579,82 +1534,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
